--- a/biology/Botanique/Pinot_lièbault/Pinot_lièbault.xlsx
+++ b/biology/Botanique/Pinot_lièbault/Pinot_lièbault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pinot lièbault N[1]est un cépage de cuve français. Il était mentionné dans les anciens décrets définissant les AOC françaises. Toutefois, aucune description n'est disponible de ce cépage.
+Le pinot lièbault Nest un cépage de cuve français. Il était mentionné dans les anciens décrets définissant les AOC françaises. Toutefois, aucune description n'est disponible de ce cépage.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Encore utilisé en Bourgogne.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,6 +614,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -603,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,6 +642,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,7 +651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pinot_li%C3%A8bault</t>
+          <t>Pinot_lièbault</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,6 +670,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
